--- a/data/review_codecademygo.xlsx
+++ b/data/review_codecademygo.xlsx
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Andrew Wetherill (Drew)</t>
+          <t>Drew Wetherill</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV-bU6i8Ijg2T9yEdOX00Y8VwVUn-FynHwXG94U6wm-9jSHsYrylw</t>
+          <t>https://play-lh.googleusercontent.com/a/ACg8ocJZO4QQ2UjXnZNhKcilA1adj-oDeFmbb81-b_CEN4oNBu5Y0Oea=mo</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -17938,7 +17938,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjX5U-IVMcWfTnxWMhPmA5Ph99KHs6vJN6o8zFTGJ6qTNJ_VfQd9</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjWJ07Z6eCAXcRRbJ-CKudeVsQAqwaVQOQAeGxi7XRD3B6h69mvR</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -34119,7 +34119,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>https://play-lh.googleusercontent.com/a-/ALV-UjU9ScbEmFnXYcwGWG9Y_ThGPL6cgtxycXEp93Dna8Dj9Da1UHMQ</t>
+          <t>https://play-lh.googleusercontent.com/a-/ALV-UjV4Rf6z0a_itVKkvXlnWokgmJcQvQDJqEOVMwelw3KSZzYOd5CB</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
